--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/20/seed1/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.820600000000001</v>
+        <v>-6.329399999999998</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.23160000000002</v>
+        <v>-21.13500000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>4.779100000000005</v>
+        <v>5.007000000000003</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.098599999999999</v>
+        <v>-6.926999999999996</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.226999999999999</v>
+        <v>5.212600000000001</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.34380000000002</v>
+        <v>-21.29100000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>5.755599999999998</v>
+        <v>5.808099999999996</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.37350000000002</v>
+        <v>-21.26940000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.44890000000002</v>
+        <v>-21.49230000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>4.796499999999998</v>
+        <v>4.940700000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.705199999999996</v>
+        <v>-8.708399999999997</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.3398</v>
+        <v>-8.339499999999997</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.833199999999994</v>
+        <v>-8.704599999999994</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.54660000000002</v>
+        <v>-21.55530000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>4.819700000000004</v>
+        <v>5.008400000000002</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.561699999999997</v>
+        <v>-8.739899999999995</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.05620000000002</v>
+        <v>-22.07020000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.41769999999999</v>
+        <v>-20.5711</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.109600000000006</v>
+        <v>5.263600000000004</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.314699999999996</v>
+        <v>-7.474899999999995</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
